--- a/DCISM_WBRMSystem/file/temp_inventory/LB 486 (64 items).xlsx
+++ b/DCISM_WBRMSystem/file/temp_inventory/LB 486 (64 items).xlsx
@@ -144,7 +144,7 @@
     <t>LB 486</t>
   </si>
   <si>
-    <t>6/11/2020</t>
+    <t>8/13/2020</t>
   </si>
   <si>
     <t>Aircon</t>
@@ -29447,7 +29447,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="I2UrVGXuyUix3di31gx70s+6C1VD51rH6Pesov+7HT1kGa1HbzYQ2hlzpz+ZpsOy71fblQ0k0aaP66fgXjcN5A==" saltValue="BhMJQgX3NAXj42fIyp3W6w==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mps7bkoBwhKl0PLELG36clYuzeRoCLFS0DJzr34inPfi9vKUO+C7QInyE5X8kyDAPN5M7GP5C6stvbqSsQspsQ==" saltValue="JjC8aQXEZFA2MF1FnQw16g==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
   <extLst/>
